--- a/myplaces3.xlsx
+++ b/myplaces3.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="gliwice-6dni" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="169">
   <si>
     <t>latitude</t>
   </si>
@@ -26,13 +27,515 @@
   </si>
   <si>
     <t>address</t>
+  </si>
+  <si>
+    <t>id=2194</t>
+  </si>
+  <si>
+    <t>id=2674</t>
+  </si>
+  <si>
+    <t>id=2950</t>
+  </si>
+  <si>
+    <t>id=3365</t>
+  </si>
+  <si>
+    <t>id=3488</t>
+  </si>
+  <si>
+    <t>id=362</t>
+  </si>
+  <si>
+    <t>id=402</t>
+  </si>
+  <si>
+    <t>id=853</t>
+  </si>
+  <si>
+    <t>id=907</t>
+  </si>
+  <si>
+    <t>id=1002</t>
+  </si>
+  <si>
+    <t>id=1038</t>
+  </si>
+  <si>
+    <t>id=2152</t>
+  </si>
+  <si>
+    <t>id=2785</t>
+  </si>
+  <si>
+    <t>id=3772</t>
+  </si>
+  <si>
+    <t>id=2284</t>
+  </si>
+  <si>
+    <t>id=3165</t>
+  </si>
+  <si>
+    <t>id=2219</t>
+  </si>
+  <si>
+    <t>id=1055</t>
+  </si>
+  <si>
+    <t>% normy</t>
+  </si>
+  <si>
+    <t>liczba sąsiadów</t>
+  </si>
+  <si>
+    <t>mean_pm_10[μg/m^3]</t>
+  </si>
+  <si>
+    <t>id czujnika</t>
+  </si>
+  <si>
+    <t>2018-10-18T19:00:00Z</t>
+  </si>
+  <si>
+    <t>92.56888888888889</t>
+  </si>
+  <si>
+    <t>2018-10-18T20:00:00Z</t>
+  </si>
+  <si>
+    <t>95.75111111111111</t>
+  </si>
+  <si>
+    <t>2018-10-18T21:00:00Z</t>
+  </si>
+  <si>
+    <t>85.02222222222223</t>
+  </si>
+  <si>
+    <t>2018-10-18T22:00:00Z</t>
+  </si>
+  <si>
+    <t>81.47</t>
+  </si>
+  <si>
+    <t>2018-10-18T23:00:00Z</t>
+  </si>
+  <si>
+    <t>64.26666666666667</t>
+  </si>
+  <si>
+    <t>2018-10-19T00:00:00Z</t>
+  </si>
+  <si>
+    <t>67.64444444444445</t>
+  </si>
+  <si>
+    <t>2018-10-19T01:00:00Z</t>
+  </si>
+  <si>
+    <t>61.712</t>
+  </si>
+  <si>
+    <t>2018-10-19T02:00:00Z</t>
+  </si>
+  <si>
+    <t>61.84</t>
+  </si>
+  <si>
+    <t>2018-10-19T03:00:00Z</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>2018-10-19T04:00:00Z</t>
+  </si>
+  <si>
+    <t>2018-10-19T05:00:00Z</t>
+  </si>
+  <si>
+    <t>83.60000000000001</t>
+  </si>
+  <si>
+    <t>2018-10-19T06:00:00Z</t>
+  </si>
+  <si>
+    <t>94.50666666666667</t>
+  </si>
+  <si>
+    <t>2018-10-19T07:00:00Z</t>
+  </si>
+  <si>
+    <t>95.09333333333333</t>
+  </si>
+  <si>
+    <t>2018-10-19T08:00:00Z</t>
+  </si>
+  <si>
+    <t>113.376</t>
+  </si>
+  <si>
+    <t>2018-10-19T09:00:00Z</t>
+  </si>
+  <si>
+    <t>118.83555555555556</t>
+  </si>
+  <si>
+    <t>2018-10-19T10:00:00Z</t>
+  </si>
+  <si>
+    <t>116.72</t>
+  </si>
+  <si>
+    <t>2018-10-19T11:00:00Z</t>
+  </si>
+  <si>
+    <t>111.58222222222223</t>
+  </si>
+  <si>
+    <t>2018-10-19T12:00:00Z</t>
+  </si>
+  <si>
+    <t>115.25333333333333</t>
+  </si>
+  <si>
+    <t>2018-10-19T13:00:00Z</t>
+  </si>
+  <si>
+    <t>118.30000000000001</t>
+  </si>
+  <si>
+    <t>2018-10-19T14:00:00Z</t>
+  </si>
+  <si>
+    <t>114.32000000000001</t>
+  </si>
+  <si>
+    <t>2018-10-19T15:00:00Z</t>
+  </si>
+  <si>
+    <t>118.57777777777778</t>
+  </si>
+  <si>
+    <t>2018-10-19T16:00:00Z</t>
+  </si>
+  <si>
+    <t>108.904</t>
+  </si>
+  <si>
+    <t>2018-10-19T17:00:00Z</t>
+  </si>
+  <si>
+    <t>115.98000000000002</t>
+  </si>
+  <si>
+    <t>2018-10-19T18:00:00Z</t>
+  </si>
+  <si>
+    <t>121.176</t>
+  </si>
+  <si>
+    <t>2018-10-19T20:00:00Z</t>
+  </si>
+  <si>
+    <t>104.17</t>
+  </si>
+  <si>
+    <t>2018-10-19T21:00:00Z</t>
+  </si>
+  <si>
+    <t>92.44444444444444</t>
+  </si>
+  <si>
+    <t>2018-10-19T22:00:00Z</t>
+  </si>
+  <si>
+    <t>90.22222222222223</t>
+  </si>
+  <si>
+    <t>2018-10-19T23:00:00Z</t>
+  </si>
+  <si>
+    <t>93.512</t>
+  </si>
+  <si>
+    <t>2018-10-20T00:00:00Z</t>
+  </si>
+  <si>
+    <t>85.05777777777779</t>
+  </si>
+  <si>
+    <t>2018-10-20T01:00:00Z</t>
+  </si>
+  <si>
+    <t>76.06222222222223</t>
+  </si>
+  <si>
+    <t>2018-10-20T02:00:00Z</t>
+  </si>
+  <si>
+    <t>70.56</t>
+  </si>
+  <si>
+    <t>2018-10-20T03:00:00Z</t>
+  </si>
+  <si>
+    <t>72.73</t>
+  </si>
+  <si>
+    <t>2018-10-20T04:00:00Z</t>
+  </si>
+  <si>
+    <t>74.16</t>
+  </si>
+  <si>
+    <t>2018-10-20T05:00:00Z</t>
+  </si>
+  <si>
+    <t>84.26666666666667</t>
+  </si>
+  <si>
+    <t>2018-10-20T06:00:00Z</t>
+  </si>
+  <si>
+    <t>85.50222222222222</t>
+  </si>
+  <si>
+    <t>2018-10-20T07:00:00Z</t>
+  </si>
+  <si>
+    <t>82.27555555555556</t>
+  </si>
+  <si>
+    <t>2018-10-20T08:00:00Z</t>
+  </si>
+  <si>
+    <t>84.336</t>
+  </si>
+  <si>
+    <t>2018-10-20T09:00:00Z</t>
+  </si>
+  <si>
+    <t>99.0488888888889</t>
+  </si>
+  <si>
+    <t>2018-10-20T10:00:00Z</t>
+  </si>
+  <si>
+    <t>87.36888888888889</t>
+  </si>
+  <si>
+    <t>2018-10-20T11:00:00Z</t>
+  </si>
+  <si>
+    <t>2015.6800000000003</t>
+  </si>
+  <si>
+    <t>2018-10-20T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2666.0888888888894</t>
+  </si>
+  <si>
+    <t>2018-10-20T13:00:00Z</t>
+  </si>
+  <si>
+    <t>2666.08</t>
+  </si>
+  <si>
+    <t>2018-10-20T14:00:00Z</t>
+  </si>
+  <si>
+    <t>1791.5377777777778</t>
+  </si>
+  <si>
+    <t>2018-10-20T15:00:00Z</t>
+  </si>
+  <si>
+    <t>44.26666666666667</t>
+  </si>
+  <si>
+    <t>2018-10-20T16:00:00Z</t>
+  </si>
+  <si>
+    <t>44.99555555555556</t>
+  </si>
+  <si>
+    <t>2018-10-20T17:00:00Z</t>
+  </si>
+  <si>
+    <t>50.368</t>
+  </si>
+  <si>
+    <t>2018-10-20T18:00:00Z</t>
+  </si>
+  <si>
+    <t>55.660000000000004</t>
+  </si>
+  <si>
+    <t>2018-10-20T19:00:00Z</t>
+  </si>
+  <si>
+    <t>807.9555555555556</t>
+  </si>
+  <si>
+    <t>2018-10-20T20:00:00Z</t>
+  </si>
+  <si>
+    <t>2503.617777777778</t>
+  </si>
+  <si>
+    <t>2018-10-20T21:00:00Z</t>
+  </si>
+  <si>
+    <t>2847.546666666667</t>
+  </si>
+  <si>
+    <t>2018-10-20T22:00:00Z</t>
+  </si>
+  <si>
+    <t>2849.128888888889</t>
+  </si>
+  <si>
+    <t>2018-10-20T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2893.1680000000006</t>
+  </si>
+  <si>
+    <t>2018-10-21T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2898.0622222222223</t>
+  </si>
+  <si>
+    <t>2018-10-21T01:00:00Z</t>
+  </si>
+  <si>
+    <t>2561.128888888889</t>
+  </si>
+  <si>
+    <t>2018-10-21T02:00:00Z</t>
+  </si>
+  <si>
+    <t>2875.9900000000002</t>
+  </si>
+  <si>
+    <t>2018-10-21T03:00:00Z</t>
+  </si>
+  <si>
+    <t>2246.266666666667</t>
+  </si>
+  <si>
+    <t>2018-10-21T04:00:00Z</t>
+  </si>
+  <si>
+    <t>1264.9333333333334</t>
+  </si>
+  <si>
+    <t>2018-10-21T05:00:00Z</t>
+  </si>
+  <si>
+    <t>545.4933333333333</t>
+  </si>
+  <si>
+    <t>2018-10-21T06:00:00Z</t>
+  </si>
+  <si>
+    <t>960.5155555555557</t>
+  </si>
+  <si>
+    <t>2018-10-21T07:00:00Z</t>
+  </si>
+  <si>
+    <t>827.3066666666668</t>
+  </si>
+  <si>
+    <t>2018-10-21T08:00:00Z</t>
+  </si>
+  <si>
+    <t>1672.1600000000003</t>
+  </si>
+  <si>
+    <t>2018-10-21T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2187.226666666667</t>
+  </si>
+  <si>
+    <t>2018-10-21T10:00:00Z</t>
+  </si>
+  <si>
+    <t>2752.71</t>
+  </si>
+  <si>
+    <t>2018-10-21T11:00:00Z</t>
+  </si>
+  <si>
+    <t>2706.897777777778</t>
+  </si>
+  <si>
+    <t>2018-10-21T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2676.782222222222</t>
+  </si>
+  <si>
+    <t>2018-10-21T13:00:00Z</t>
+  </si>
+  <si>
+    <t>2666.808888888889</t>
+  </si>
+  <si>
+    <t>2018-10-21T14:00:00Z</t>
+  </si>
+  <si>
+    <t>2671.928888888889</t>
+  </si>
+  <si>
+    <t>2018-10-21T15:00:00Z</t>
+  </si>
+  <si>
+    <t>2691.626666666667</t>
+  </si>
+  <si>
+    <t>2018-10-21T16:00:00Z</t>
+  </si>
+  <si>
+    <t>2703.448888888889</t>
+  </si>
+  <si>
+    <t>2018-10-21T17:00:00Z</t>
+  </si>
+  <si>
+    <t>2420.008888888889</t>
+  </si>
+  <si>
+    <t>2018-10-21T18:00:00Z</t>
+  </si>
+  <si>
+    <t>2664.275555555556</t>
+  </si>
+  <si>
+    <t>2018-10-21T19:00:00Z</t>
+  </si>
+  <si>
+    <t>2611.4666666666667</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,24 +561,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Procentowy" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H19" totalsRowShown="0">
+  <autoFilter ref="A1:H19">
+    <filterColumn colId="7"/>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" name="latitude"/>
+    <tableColumn id="2" name="longitude"/>
+    <tableColumn id="3" name="mean_div_value" dataDxfId="1" dataCellStyle="Procentowy"/>
+    <tableColumn id="4" name="mean_pm_10[μg/m^3]"/>
+    <tableColumn id="5" name="% normy" dataDxfId="0" dataCellStyle="Procentowy">
+      <calculatedColumnFormula>D2/50</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="liczba sąsiadów"/>
+    <tableColumn id="7" name="address"/>
+    <tableColumn id="8" name="id czujnika"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -113,7 +675,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -183,7 +745,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -357,222 +919,1220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>54.151519</v>
+      </c>
+      <c r="B2">
+        <v>19.417034000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.407205110924806</v>
+      </c>
+      <c r="D2">
+        <v>36.811257881007798</v>
+      </c>
+      <c r="E2" s="1">
+        <f>D2/50</f>
+        <v>0.73622515762015595</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>54.485285999999988</v>
+      </c>
+      <c r="B3">
+        <v>18.518304000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.0399619693093358</v>
+      </c>
+      <c r="D3">
+        <v>32.214110187804401</v>
+      </c>
+      <c r="E3" s="1">
+        <f>D3/50</f>
+        <v>0.64428220375608802</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>53.865591999999999</v>
+      </c>
+      <c r="B4">
+        <v>21.304646000000002</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.0585415540936718</v>
+      </c>
+      <c r="D4">
+        <v>34.104380143831399</v>
+      </c>
+      <c r="E4" s="1">
+        <f>D4/50</f>
+        <v>0.68208760287662795</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>49.309328999999998</v>
+      </c>
+      <c r="B5">
+        <v>19.963799999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18.54982549267076</v>
+      </c>
+      <c r="D5">
+        <v>61.2841463471227</v>
+      </c>
+      <c r="E5" s="1">
+        <f>D5/50</f>
+        <v>1.2256829269424541</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>54.557894999999988</v>
+      </c>
+      <c r="B6">
+        <v>18.472138999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.0788477640640388</v>
+      </c>
+      <c r="D6">
+        <v>47.112196729957702</v>
+      </c>
+      <c r="E6" s="1">
+        <f>D6/50</f>
+        <v>0.94224393459915401</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>49.833869</v>
+      </c>
+      <c r="B7">
+        <v>19.510428999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.2255921910189396</v>
+      </c>
+      <c r="D7">
+        <v>80.960147040682898</v>
+      </c>
+      <c r="E7" s="1">
+        <f>D7/50</f>
+        <v>1.6192029408136579</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>50.045462999999998</v>
+      </c>
+      <c r="B8">
+        <v>18.693539999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.2251784002647099</v>
+      </c>
+      <c r="D8">
+        <v>67.067611931901396</v>
+      </c>
+      <c r="E8" s="1">
+        <f>D8/50</f>
+        <v>1.3413522386380279</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>52.015490999999997</v>
+      </c>
+      <c r="B9">
+        <v>18.499015</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.8636704824682027</v>
+      </c>
+      <c r="D9">
+        <v>50.737643633247899</v>
+      </c>
+      <c r="E9" s="1">
+        <f>D9/50</f>
+        <v>1.014752872664958</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>51.762241000000003</v>
+      </c>
+      <c r="B10">
+        <v>18.087985</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.1311097340239438</v>
+      </c>
+      <c r="D10">
+        <v>80.115512848055104</v>
+      </c>
+      <c r="E10" s="1">
+        <f>D10/50</f>
+        <v>1.6023102569611021</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>50.373683</v>
+      </c>
+      <c r="B11">
+        <v>18.946463999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.0102796336914999</v>
+      </c>
+      <c r="D11">
+        <v>44.533058690289799</v>
+      </c>
+      <c r="E11" s="1">
+        <f>D11/50</f>
+        <v>0.89066117380579601</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>50.728552999999998</v>
+      </c>
+      <c r="B12">
+        <v>16.651682999999998</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.3955882326555211</v>
+      </c>
+      <c r="D12">
+        <v>34.499851300446601</v>
+      </c>
+      <c r="E12" s="1">
+        <f>D12/50</f>
+        <v>0.68999702600893198</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>54.602404999999997</v>
+      </c>
+      <c r="B13">
+        <v>18.238005999999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.0140226289319343</v>
+      </c>
+      <c r="D13">
+        <v>87.009885704333797</v>
+      </c>
+      <c r="E13" s="1">
+        <f>D13/50</f>
+        <v>1.740197714086676</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>50.247795000000004</v>
+      </c>
+      <c r="B14">
+        <v>18.741539</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.6342299920658188</v>
+      </c>
+      <c r="D14">
+        <v>989.70498095238099</v>
+      </c>
+      <c r="E14" s="1">
+        <f>D14/50</f>
+        <v>19.794099619047621</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>51.614505000000001</v>
+      </c>
+      <c r="B15">
+        <v>15.322998999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.5990695362945662</v>
+      </c>
+      <c r="D15">
+        <v>35.406798135043402</v>
+      </c>
+      <c r="E15" s="1">
+        <f>D15/50</f>
+        <v>0.70813596270086809</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>50.486190000000001</v>
+      </c>
+      <c r="B16">
+        <v>17.2546</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.0190706656081856</v>
+      </c>
+      <c r="D16">
+        <v>44.205237640291799</v>
+      </c>
+      <c r="E16" s="1">
+        <f>D16/50</f>
+        <v>0.884104752805836</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>52.171646000000003</v>
+      </c>
+      <c r="B17">
+        <v>20.813628999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.4562922929987998</v>
+      </c>
+      <c r="D17">
+        <v>78.494325825494698</v>
+      </c>
+      <c r="E17" s="1">
+        <f>D17/50</f>
+        <v>1.5698865165098939</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>53.418211999999997</v>
+      </c>
+      <c r="B18">
+        <v>14.531328999999999</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.6841080583772663</v>
+      </c>
+      <c r="D18">
+        <v>39.144997676767602</v>
+      </c>
+      <c r="E18" s="1">
+        <f>D18/50</f>
+        <v>0.78289995353535202</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>49.761446999999997</v>
+      </c>
+      <c r="B19">
+        <v>20.450979</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.7217032329305657</v>
+      </c>
+      <c r="D19">
+        <v>96.241660886502501</v>
+      </c>
+      <c r="E19" s="1">
+        <f>D19/50</f>
+        <v>1.92483321773005</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A144"/>
+  <sheetViews>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="J135" sqref="J135"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>54.151519</v>
-      </c>
-      <c r="B2">
-        <v>19.417034</v>
-      </c>
-      <c r="C2">
-        <v>240.7205110924806</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>54.48528599999999</v>
-      </c>
-      <c r="B3">
-        <v>18.518304</v>
-      </c>
-      <c r="C3">
-        <v>303.9961969309336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>53.865592</v>
-      </c>
-      <c r="B4">
-        <v>21.304646</v>
-      </c>
-      <c r="C4">
-        <v>205.8541554093672</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>49.309329</v>
-      </c>
-      <c r="B5">
-        <v>19.9638</v>
-      </c>
-      <c r="C5">
-        <v>1854.982549267076</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>54.55789499999999</v>
-      </c>
-      <c r="B6">
-        <v>18.472139</v>
-      </c>
-      <c r="C6">
-        <v>307.8847764064039</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>49.833869</v>
-      </c>
-      <c r="B7">
-        <v>19.510429</v>
-      </c>
-      <c r="C7">
-        <v>322.559219101894</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>50.045463</v>
-      </c>
-      <c r="B8">
-        <v>18.69354</v>
-      </c>
-      <c r="C8">
-        <v>222.517840026471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>52.015491</v>
-      </c>
-      <c r="B9">
-        <v>18.499015</v>
-      </c>
-      <c r="C9">
-        <v>286.3670482468203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>51.762241</v>
-      </c>
-      <c r="B10">
-        <v>18.087985</v>
-      </c>
-      <c r="C10">
-        <v>213.1109734023944</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>50.373683</v>
-      </c>
-      <c r="B11">
-        <v>18.946464</v>
-      </c>
-      <c r="C11">
-        <v>201.02796336915</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>50.728553</v>
-      </c>
-      <c r="B12">
-        <v>16.651683</v>
-      </c>
-      <c r="C12">
-        <v>239.5588232655521</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>54.602405</v>
-      </c>
-      <c r="B13">
-        <v>18.238006</v>
-      </c>
-      <c r="C13">
-        <v>201.4022628931934</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>50.247795</v>
-      </c>
-      <c r="B14">
-        <v>18.741539</v>
-      </c>
-      <c r="C14">
-        <v>263.4229992065819</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>51.614505</v>
-      </c>
-      <c r="B15">
-        <v>15.322999</v>
-      </c>
-      <c r="C15">
-        <v>259.9069536294566</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>50.48619</v>
-      </c>
-      <c r="B16">
-        <v>17.2546</v>
-      </c>
-      <c r="C16">
-        <v>301.9070665608186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>52.171646</v>
-      </c>
-      <c r="B17">
-        <v>20.813629</v>
-      </c>
-      <c r="C17">
-        <v>245.62922929988</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>53.418212</v>
-      </c>
-      <c r="B18">
-        <v>14.531329</v>
-      </c>
-      <c r="C18">
-        <v>268.4108058377266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>49.761447</v>
-      </c>
-      <c r="B19">
-        <v>20.450979</v>
-      </c>
-      <c r="C19">
-        <v>372.1703232930566</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
